--- a/medicine/Psychotrope/Château_de_Rattey/Château_de_Rattey.xlsx
+++ b/medicine/Psychotrope/Château_de_Rattey/Château_de_Rattey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Rattey</t>
+          <t>Château_de_Rattey</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château de Rattey (Schloß Rattey) est un château allemand du Mecklembourg situé à Rattey, village appartenant à la commune rurale de Schönbeck dans l'arrondissement du Plateau des lacs mecklembourgeois.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Rattey</t>
+          <t>Château_de_Rattey</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le domaine seigneurial de Rattay a été formé au XIVe siècle par la famille Manteuffel. Il est en possession au XVIIIe siècle de la famille von Oertzen. Hans-Christoph von Oertzen fait construire le château actuel en 1802-1806 en style néoclassique. Les bâtiments agricoles sont aussi reconstruits en 1832-1835. Plus tard, le château appartient à Hans-Ulrich von Oertzen qui fit partie des conjurés de l'attentat du 20 juillet 1944 contre Hitler.
 Le château est vendu à la commune après l'attentat, puis accueille des centaines de réfugiés expulsés des provinces allemandes de l'Est données à la Pologne. Il devient ensuite le siège de la LPG locale (sovkhoze à l'allemande) avec cuisines communes et logements communautaires. 
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Rattey</t>
+          <t>Château_de_Rattey</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(de) Site officiel du château
  Portail de l’Allemagne   Portail des châteaux   Portail du tourisme   Portail de la vigne et du vin                  </t>
